--- a/srt_4_Half_Table_20191130va.xlsx
+++ b/srt_4_Half_Table_20191130va.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linus\Documents\HighSpeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ACA1CDD-5A16-478B-A7E2-AF44A0F25628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE695CC-9215-41C9-9B94-502C83361859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="23064" windowHeight="12384" xr2:uid="{D76CCCC9-113C-4CA8-AEB2-F766989B2E5C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{D76CCCC9-113C-4CA8-AEB2-F766989B2E5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -641,8 +641,8 @@
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3653,6 +3653,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:S66">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:S17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>